--- a/matrix.xlsx
+++ b/matrix.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Учеба\3 курс\1 семестр\теория систем (Громов)\ЛР 1\Group-expert-assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06D77BF-B685-417A-A1A1-B65F0735EFF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6850DEF3-C292-4B00-AE9C-20EC51D221B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="705" windowWidth="13575" windowHeight="7875" xr2:uid="{D1ADADFD-17AD-4104-ADD0-26B69504F67D}"/>
+    <workbookView xWindow="4815" yWindow="1410" windowWidth="13575" windowHeight="7875" activeTab="1" xr2:uid="{D1ADADFD-17AD-4104-ADD0-26B69504F67D}"/>
   </bookViews>
   <sheets>
-    <sheet name="ЛР1" sheetId="1" r:id="rId1"/>
+    <sheet name="FirstLab" sheetId="1" r:id="rId1"/>
+    <sheet name="SecondLab" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>а1</t>
   </si>
@@ -57,15 +58,6 @@
   </si>
   <si>
     <t>э2</t>
-  </si>
-  <si>
-    <t>э3</t>
-  </si>
-  <si>
-    <t>э4</t>
-  </si>
-  <si>
-    <t>э5</t>
   </si>
 </sst>
 </file>
@@ -418,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B539225-A8C7-409D-B48A-AB977F09F6A9}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,88 +472,31 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>50</v>
-      </c>
-      <c r="D5">
-        <v>80</v>
-      </c>
-      <c r="E5">
-        <v>40</v>
-      </c>
-      <c r="F5">
-        <v>50</v>
-      </c>
-      <c r="G5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0.6</v>
-      </c>
-      <c r="D6">
-        <v>0.8</v>
-      </c>
-      <c r="E6">
-        <v>0.4</v>
-      </c>
-      <c r="F6">
-        <v>0.4</v>
-      </c>
-      <c r="G6">
-        <v>0.6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B6D542-1548-4BBA-856B-45C5BAB79FF7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/matrix.xlsx
+++ b/matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Учеба\3 курс\1 семестр\теория систем (Громов)\ЛР 1\Group-expert-assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6850DEF3-C292-4B00-AE9C-20EC51D221B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2D3D3E-0080-448F-856A-D9441B98A208}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="1410" windowWidth="13575" windowHeight="7875" activeTab="1" xr2:uid="{D1ADADFD-17AD-4104-ADD0-26B69504F67D}"/>
+    <workbookView xWindow="4815" yWindow="1410" windowWidth="13575" windowHeight="7875" xr2:uid="{D1ADADFD-17AD-4104-ADD0-26B69504F67D}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstLab" sheetId="1" r:id="rId1"/>
@@ -412,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B539225-A8C7-409D-B48A-AB977F09F6A9}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B6D542-1548-4BBA-856B-45C5BAB79FF7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/matrix.xlsx
+++ b/matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Учеба\3 курс\1 семестр\теория систем (Громов)\ЛР 1\Group-expert-assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2D3D3E-0080-448F-856A-D9441B98A208}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D5116D-C074-49E0-8E2D-B9890E2037C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="1410" windowWidth="13575" windowHeight="7875" xr2:uid="{D1ADADFD-17AD-4104-ADD0-26B69504F67D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D1ADADFD-17AD-4104-ADD0-26B69504F67D}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstLab" sheetId="1" r:id="rId1"/>
@@ -34,39 +34,71 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>а1</t>
-  </si>
-  <si>
-    <t>а2</t>
-  </si>
-  <si>
-    <t>а3</t>
-  </si>
-  <si>
-    <t>а4</t>
-  </si>
-  <si>
-    <t>а5</t>
-  </si>
-  <si>
-    <t>а6</t>
-  </si>
-  <si>
-    <t>э1</t>
-  </si>
-  <si>
-    <t>э2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Эксперт</t>
+  </si>
+  <si>
+    <t>Альтернатива</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>Э1</t>
+  </si>
+  <si>
+    <t>Э2</t>
+  </si>
+  <si>
+    <t>Э3</t>
+  </si>
+  <si>
+    <t>Э4</t>
+  </si>
+  <si>
+    <t>Э5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -82,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -90,12 +122,131 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -410,82 +561,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B539225-A8C7-409D-B48A-AB977F09F6A9}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="D3" s="3">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="E4" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
+      <c r="C5" s="3">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>100</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3">
+        <v>80</v>
+      </c>
+      <c r="E6" s="3">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3">
+        <v>50</v>
+      </c>
+      <c r="G6" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
